--- a/src/analysis_examples/circadb/results_jtk/cosinor_10400304_egln3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10400304_egln3_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23103029958662058, 0.3567042890965372]</t>
+          <t>[0.22982725884058836, 0.3579073298425694]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.146342075766029e-09</v>
+        <v>4.367320061149371e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.146342075766029e-09</v>
+        <v>4.367320061149371e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5912106295043857</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, -0.3647895373537704]</t>
+          <t>[-0.8050527720910781, -0.3773684869176934]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.186934298231691e-05</v>
+        <v>1.045909169605785e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>2.186934298231691e-05</v>
+        <v>1.045909169605785e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.5436001218459412</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5107609744401839, 0.5764392692516985]</t>
+          <t>[0.5107907249783616, 0.5764095187135208]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.326006006006079</v>
       </c>
       <c r="X2" t="n">
-        <v>1.435195195195243</v>
+        <v>1.484684684684733</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.216816816816915</v>
+        <v>3.167327327327424</v>
       </c>
     </row>
   </sheetData>
